--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8314.084160026403</v>
+        <v>8813.128928750124</v>
       </c>
       <c r="AB2" t="n">
-        <v>11375.69673925507</v>
+        <v>12058.51180812427</v>
       </c>
       <c r="AC2" t="n">
-        <v>10290.01620835079</v>
+        <v>10907.66436538405</v>
       </c>
       <c r="AD2" t="n">
-        <v>8314084.160026403</v>
+        <v>8813128.928750124</v>
       </c>
       <c r="AE2" t="n">
-        <v>11375696.73925507</v>
+        <v>12058511.80812427</v>
       </c>
       <c r="AF2" t="n">
         <v>1.579061624922099e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>100</v>
+        <v>99.3875</v>
       </c>
       <c r="AH2" t="n">
-        <v>10290016.20835079</v>
+        <v>10907664.36538405</v>
       </c>
     </row>
     <row r="3">
@@ -3858,28 +3858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2896.750557643014</v>
+        <v>3161.006466523639</v>
       </c>
       <c r="AB3" t="n">
-        <v>3963.461908582639</v>
+        <v>4325.028501261039</v>
       </c>
       <c r="AC3" t="n">
-        <v>3585.194666781088</v>
+        <v>3912.253851316149</v>
       </c>
       <c r="AD3" t="n">
-        <v>2896750.557643014</v>
+        <v>3161006.466523639</v>
       </c>
       <c r="AE3" t="n">
-        <v>3963461.908582639</v>
+        <v>4325028.50126104</v>
       </c>
       <c r="AF3" t="n">
         <v>2.973171136810622e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.79166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3585194.666781088</v>
+        <v>3912253.851316149</v>
       </c>
     </row>
     <row r="4">
@@ -3964,28 +3964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2254.720415304347</v>
+        <v>2479.754919295874</v>
       </c>
       <c r="AB4" t="n">
-        <v>3085.007943463979</v>
+        <v>3392.910079646849</v>
       </c>
       <c r="AC4" t="n">
-        <v>2790.579115175503</v>
+        <v>3069.095503624431</v>
       </c>
       <c r="AD4" t="n">
-        <v>2254720.415304347</v>
+        <v>2479754.919295874</v>
       </c>
       <c r="AE4" t="n">
-        <v>3085007.943463979</v>
+        <v>3392910.079646849</v>
       </c>
       <c r="AF4" t="n">
         <v>3.484332068351483e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.04583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2790579.115175503</v>
+        <v>3069095.503624431</v>
       </c>
     </row>
     <row r="5">
@@ -4070,28 +4070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1983.605439847001</v>
+        <v>2198.884576957106</v>
       </c>
       <c r="AB5" t="n">
-        <v>2714.056473294491</v>
+        <v>3008.610886133942</v>
       </c>
       <c r="AC5" t="n">
-        <v>2455.030732685449</v>
+        <v>2721.473285773104</v>
       </c>
       <c r="AD5" t="n">
-        <v>1983605.439847001</v>
+        <v>2198884.576957106</v>
       </c>
       <c r="AE5" t="n">
-        <v>2714056.473294491</v>
+        <v>3008610.886133942</v>
       </c>
       <c r="AF5" t="n">
         <v>3.758181734696513e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.7625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2455030.732685449</v>
+        <v>2721473.285773104</v>
       </c>
     </row>
     <row r="6">
@@ -4176,28 +4176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1832.828153165413</v>
+        <v>2038.318769005167</v>
       </c>
       <c r="AB6" t="n">
-        <v>2507.756337832317</v>
+        <v>2788.917664030419</v>
       </c>
       <c r="AC6" t="n">
-        <v>2268.419592607726</v>
+        <v>2522.747276445882</v>
       </c>
       <c r="AD6" t="n">
-        <v>1832828.153165413</v>
+        <v>2038318.769005167</v>
       </c>
       <c r="AE6" t="n">
-        <v>2507756.337832317</v>
+        <v>2788917.66403042</v>
       </c>
       <c r="AF6" t="n">
         <v>3.929573204004612e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.94166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2268419.592607726</v>
+        <v>2522747.276445881</v>
       </c>
     </row>
     <row r="7">
@@ -4282,28 +4282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1734.930105347236</v>
+        <v>1930.666365335422</v>
       </c>
       <c r="AB7" t="n">
-        <v>2373.807909850434</v>
+        <v>2641.622896040613</v>
       </c>
       <c r="AC7" t="n">
-        <v>2147.255014594634</v>
+        <v>2389.510114383517</v>
       </c>
       <c r="AD7" t="n">
-        <v>1734930.105347236</v>
+        <v>1930666.365335422</v>
       </c>
       <c r="AE7" t="n">
-        <v>2373807.909850433</v>
+        <v>2641622.896040613</v>
       </c>
       <c r="AF7" t="n">
         <v>4.045215360219089e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="AH7" t="n">
-        <v>2147255.014594634</v>
+        <v>2389510.114383517</v>
       </c>
     </row>
     <row r="8">
@@ -4388,28 +4388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1656.684385896216</v>
+        <v>1852.386480465621</v>
       </c>
       <c r="AB8" t="n">
-        <v>2266.748664540033</v>
+        <v>2534.516904096965</v>
       </c>
       <c r="AC8" t="n">
-        <v>2050.413353398063</v>
+        <v>2292.626167986767</v>
       </c>
       <c r="AD8" t="n">
-        <v>1656684.385896216</v>
+        <v>1852386.480465621</v>
       </c>
       <c r="AE8" t="n">
-        <v>2266748.664540033</v>
+        <v>2534516.904096965</v>
       </c>
       <c r="AF8" t="n">
         <v>4.131099437147104e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.99583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2050413.353398064</v>
+        <v>2292626.167986766</v>
       </c>
     </row>
     <row r="9">
@@ -4494,28 +4494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1599.478759019268</v>
+        <v>1785.359177929401</v>
       </c>
       <c r="AB9" t="n">
-        <v>2188.477402112851</v>
+        <v>2442.807191731019</v>
       </c>
       <c r="AC9" t="n">
-        <v>1979.612190402526</v>
+        <v>2209.669101853636</v>
       </c>
       <c r="AD9" t="n">
-        <v>1599478.759019268</v>
+        <v>1785359.177929401</v>
       </c>
       <c r="AE9" t="n">
-        <v>2188477.402112851</v>
+        <v>2442807.191731018</v>
       </c>
       <c r="AF9" t="n">
         <v>4.198149286678624e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>37.3875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1979612.190402525</v>
+        <v>2209669.101853636</v>
       </c>
     </row>
     <row r="10">
@@ -4600,28 +4600,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1539.848974808814</v>
+        <v>1725.796713526652</v>
       </c>
       <c r="AB10" t="n">
-        <v>2106.889300675693</v>
+        <v>2361.311200224701</v>
       </c>
       <c r="AC10" t="n">
-        <v>1905.810742856909</v>
+        <v>2135.95097339634</v>
       </c>
       <c r="AD10" t="n">
-        <v>1539848.974808814</v>
+        <v>1725796.713526652</v>
       </c>
       <c r="AE10" t="n">
-        <v>2106889.300675693</v>
+        <v>2361311.200224701</v>
       </c>
       <c r="AF10" t="n">
         <v>4.253145230676388e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>36.90416666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1905810.74285691</v>
+        <v>2135950.973396339</v>
       </c>
     </row>
     <row r="11">
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1499.317189269114</v>
+        <v>1685.264927986952</v>
       </c>
       <c r="AB11" t="n">
-        <v>2051.431923564098</v>
+        <v>2305.853823113106</v>
       </c>
       <c r="AC11" t="n">
-        <v>1855.646139981927</v>
+        <v>2085.786370521357</v>
       </c>
       <c r="AD11" t="n">
-        <v>1499317.189269114</v>
+        <v>1685264.927986952</v>
       </c>
       <c r="AE11" t="n">
-        <v>2051431.923564098</v>
+        <v>2305853.823113106</v>
       </c>
       <c r="AF11" t="n">
         <v>4.287800209085938e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>37</v>
+        <v>36.60416666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1855646.139981927</v>
+        <v>2085786.370521357</v>
       </c>
     </row>
     <row r="12">
@@ -4812,28 +4812,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1489.952847730674</v>
+        <v>1675.900586448512</v>
       </c>
       <c r="AB12" t="n">
-        <v>2038.619218345613</v>
+        <v>2293.041117894621</v>
       </c>
       <c r="AC12" t="n">
-        <v>1844.05626136675</v>
+        <v>2074.19649190618</v>
       </c>
       <c r="AD12" t="n">
-        <v>1489952.847730674</v>
+        <v>1675900.586448512</v>
       </c>
       <c r="AE12" t="n">
-        <v>2038619.218345613</v>
+        <v>2293041.117894621</v>
       </c>
       <c r="AF12" t="n">
         <v>4.297594007332115e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>37</v>
+        <v>36.52083333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1844056.26136675</v>
+        <v>2074196.49190618</v>
       </c>
     </row>
     <row r="13">
@@ -4918,28 +4918,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1494.104406477499</v>
+        <v>1680.052145195337</v>
       </c>
       <c r="AB13" t="n">
-        <v>2044.299564176865</v>
+        <v>2298.721463725873</v>
       </c>
       <c r="AC13" t="n">
-        <v>1849.194482964282</v>
+        <v>2079.334713503712</v>
       </c>
       <c r="AD13" t="n">
-        <v>1494104.406477499</v>
+        <v>1680052.145195337</v>
       </c>
       <c r="AE13" t="n">
-        <v>2044299.564176865</v>
+        <v>2298721.463725873</v>
       </c>
       <c r="AF13" t="n">
         <v>4.297594007332115e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>37</v>
+        <v>36.52083333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>1849194.482964282</v>
+        <v>2079334.713503712</v>
       </c>
     </row>
   </sheetData>
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5140.441271021542</v>
+        <v>5527.527586380602</v>
       </c>
       <c r="AB2" t="n">
-        <v>7033.378527275605</v>
+        <v>7563.007100992898</v>
       </c>
       <c r="AC2" t="n">
-        <v>6362.122752040918</v>
+        <v>6841.204318020983</v>
       </c>
       <c r="AD2" t="n">
-        <v>5140441.271021542</v>
+        <v>5527527.586380602</v>
       </c>
       <c r="AE2" t="n">
-        <v>7033378.527275605</v>
+        <v>7563007.100992898</v>
       </c>
       <c r="AF2" t="n">
         <v>2.195588266526233e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>79</v>
+        <v>78.21250000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>6362122.752040918</v>
+        <v>6841204.318020983</v>
       </c>
     </row>
     <row r="3">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2317.21197315816</v>
+        <v>2559.090051265597</v>
       </c>
       <c r="AB3" t="n">
-        <v>3170.511649852529</v>
+        <v>3501.459907226834</v>
       </c>
       <c r="AC3" t="n">
-        <v>2867.922467831532</v>
+        <v>3167.285488010818</v>
       </c>
       <c r="AD3" t="n">
-        <v>2317211.97315816</v>
+        <v>2559090.051265597</v>
       </c>
       <c r="AE3" t="n">
-        <v>3170511.64985253</v>
+        <v>3501459.907226834</v>
       </c>
       <c r="AF3" t="n">
         <v>3.554075018257126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.32083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2867922.467831532</v>
+        <v>3167285.488010818</v>
       </c>
     </row>
     <row r="4">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1868.768528337984</v>
+        <v>2081.604958995096</v>
       </c>
       <c r="AB4" t="n">
-        <v>2556.931544720876</v>
+        <v>2848.143738826567</v>
       </c>
       <c r="AC4" t="n">
-        <v>2312.901586768678</v>
+        <v>2576.320897787803</v>
       </c>
       <c r="AD4" t="n">
-        <v>1868768.528337984</v>
+        <v>2081604.958995096</v>
       </c>
       <c r="AE4" t="n">
-        <v>2556931.544720876</v>
+        <v>2848143.738826567</v>
       </c>
       <c r="AF4" t="n">
         <v>4.046196735965466e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.44583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2312901.586768677</v>
+        <v>2576320.897787803</v>
       </c>
     </row>
     <row r="5">
@@ -5533,28 +5533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1669.282140891618</v>
+        <v>1872.505342206327</v>
       </c>
       <c r="AB5" t="n">
-        <v>2283.985468698469</v>
+        <v>2562.044418312136</v>
       </c>
       <c r="AC5" t="n">
-        <v>2066.005101159624</v>
+        <v>2317.526494880351</v>
       </c>
       <c r="AD5" t="n">
-        <v>1669282.140891618</v>
+        <v>1872505.342206327</v>
       </c>
       <c r="AE5" t="n">
-        <v>2283985.468698469</v>
+        <v>2562044.418312136</v>
       </c>
       <c r="AF5" t="n">
         <v>4.303798137613466e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.90416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2066005.101159624</v>
+        <v>2317526.494880351</v>
       </c>
     </row>
     <row r="6">
@@ -5639,28 +5639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1554.449426874289</v>
+        <v>1747.924759231186</v>
       </c>
       <c r="AB6" t="n">
-        <v>2126.866283318161</v>
+        <v>2391.587768578123</v>
       </c>
       <c r="AC6" t="n">
-        <v>1923.881150313852</v>
+        <v>2163.337988559541</v>
       </c>
       <c r="AD6" t="n">
-        <v>1554449.426874289</v>
+        <v>1747924.759231186</v>
       </c>
       <c r="AE6" t="n">
-        <v>2126866.283318161</v>
+        <v>2391587.768578123</v>
       </c>
       <c r="AF6" t="n">
         <v>4.465777898969728e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.45416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1923881.150313852</v>
+        <v>2163337.988559541</v>
       </c>
     </row>
     <row r="7">
@@ -5745,28 +5745,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1463.609186434759</v>
+        <v>1647.539620286813</v>
       </c>
       <c r="AB7" t="n">
-        <v>2002.574658760229</v>
+        <v>2254.236392794663</v>
       </c>
       <c r="AC7" t="n">
-        <v>1811.451743959338</v>
+        <v>2039.095235306987</v>
       </c>
       <c r="AD7" t="n">
-        <v>1463609.186434759</v>
+        <v>1647539.620286813</v>
       </c>
       <c r="AE7" t="n">
-        <v>2002574.658760229</v>
+        <v>2254236.392794663</v>
       </c>
       <c r="AF7" t="n">
         <v>4.577886028966938e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.51666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1811451.743959338</v>
+        <v>2039095.235306988</v>
       </c>
     </row>
     <row r="8">
@@ -5851,28 +5851,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1393.250619329657</v>
+        <v>1577.146887762931</v>
       </c>
       <c r="AB8" t="n">
-        <v>1906.306963246118</v>
+        <v>2157.921950647304</v>
       </c>
       <c r="AC8" t="n">
-        <v>1724.371702192535</v>
+        <v>1951.972908340004</v>
       </c>
       <c r="AD8" t="n">
-        <v>1393250.619329657</v>
+        <v>1577146.887762931</v>
       </c>
       <c r="AE8" t="n">
-        <v>1906306.963246118</v>
+        <v>2157921.950647304</v>
       </c>
       <c r="AF8" t="n">
         <v>4.655372530582656e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.89166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1724371.702192535</v>
+        <v>1951972.908340004</v>
       </c>
     </row>
     <row r="9">
@@ -5957,28 +5957,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1381.510503754722</v>
+        <v>1565.406772187996</v>
       </c>
       <c r="AB9" t="n">
-        <v>1890.243619179147</v>
+        <v>2141.858606580333</v>
       </c>
       <c r="AC9" t="n">
-        <v>1709.841421138271</v>
+        <v>1937.44262728574</v>
       </c>
       <c r="AD9" t="n">
-        <v>1381510.503754722</v>
+        <v>1565406.772187996</v>
       </c>
       <c r="AE9" t="n">
-        <v>1890243.619179147</v>
+        <v>2141858.606580333</v>
       </c>
       <c r="AF9" t="n">
         <v>4.673095507016038e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>1709841.421138271</v>
+        <v>1937442.62728574</v>
       </c>
     </row>
     <row r="10">
@@ -6063,28 +6063,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1385.958000338924</v>
+        <v>1569.854268772198</v>
       </c>
       <c r="AB10" t="n">
-        <v>1896.328880215354</v>
+        <v>2147.94386761654</v>
       </c>
       <c r="AC10" t="n">
-        <v>1715.345913401899</v>
+        <v>1942.947119549369</v>
       </c>
       <c r="AD10" t="n">
-        <v>1385958.000338924</v>
+        <v>1569854.268772198</v>
       </c>
       <c r="AE10" t="n">
-        <v>1896328.880215354</v>
+        <v>2147943.86761654</v>
       </c>
       <c r="AF10" t="n">
         <v>4.672683344773401e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>36.75416666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1715345.913401899</v>
+        <v>1942947.119549369</v>
       </c>
     </row>
   </sheetData>
@@ -6360,28 +6360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1803.917122203989</v>
+        <v>2047.091316599317</v>
       </c>
       <c r="AB2" t="n">
-        <v>2468.198989806228</v>
+        <v>2800.920650666222</v>
       </c>
       <c r="AC2" t="n">
-        <v>2232.63754235816</v>
+        <v>2533.60471488346</v>
       </c>
       <c r="AD2" t="n">
-        <v>1803917.122203989</v>
+        <v>2047091.316599317</v>
       </c>
       <c r="AE2" t="n">
-        <v>2468198.989806228</v>
+        <v>2800920.650666222</v>
       </c>
       <c r="AF2" t="n">
         <v>4.833579303267253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.58750000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>2232637.54235816</v>
+        <v>2533604.714883461</v>
       </c>
     </row>
     <row r="3">
@@ -6466,28 +6466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1199.50121112592</v>
+        <v>1386.61084592045</v>
       </c>
       <c r="AB3" t="n">
-        <v>1641.210475321135</v>
+        <v>1897.222132341512</v>
       </c>
       <c r="AC3" t="n">
-        <v>1484.575651009855</v>
+        <v>1716.153914798824</v>
       </c>
       <c r="AD3" t="n">
-        <v>1199501.21112592</v>
+        <v>1386610.84592045</v>
       </c>
       <c r="AE3" t="n">
-        <v>1641210.475321135</v>
+        <v>1897222.132341512</v>
       </c>
       <c r="AF3" t="n">
         <v>6.05434284546353e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.59166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1484575.651009855</v>
+        <v>1716153.914798824</v>
       </c>
     </row>
     <row r="4">
@@ -6572,28 +6572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1147.626376137743</v>
+        <v>1334.701845513493</v>
       </c>
       <c r="AB4" t="n">
-        <v>1570.233037534111</v>
+        <v>1826.19794792124</v>
       </c>
       <c r="AC4" t="n">
-        <v>1420.372200267765</v>
+        <v>1651.908178856554</v>
       </c>
       <c r="AD4" t="n">
-        <v>1147626.376137743</v>
+        <v>1334701.845513493</v>
       </c>
       <c r="AE4" t="n">
-        <v>1570233.037534111</v>
+        <v>1826197.94792124</v>
       </c>
       <c r="AF4" t="n">
         <v>6.187234635401012e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.74166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1420372.200267765</v>
+        <v>1651908.178856554</v>
       </c>
     </row>
   </sheetData>
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2618.231151214025</v>
+        <v>2902.538439004346</v>
       </c>
       <c r="AB2" t="n">
-        <v>3582.379369297466</v>
+        <v>3971.381143204519</v>
       </c>
       <c r="AC2" t="n">
-        <v>3240.482110192604</v>
+        <v>3592.358100765371</v>
       </c>
       <c r="AD2" t="n">
-        <v>2618231.151214025</v>
+        <v>2902538.439004346</v>
       </c>
       <c r="AE2" t="n">
-        <v>3582379.369297466</v>
+        <v>3971381.143204519</v>
       </c>
       <c r="AF2" t="n">
         <v>3.611949605104832e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.46666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3240482.110192604</v>
+        <v>3592358.100765371</v>
       </c>
     </row>
     <row r="3">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1564.80902365519</v>
+        <v>1773.289915836459</v>
       </c>
       <c r="AB3" t="n">
-        <v>2141.040740666944</v>
+        <v>2426.29349487719</v>
       </c>
       <c r="AC3" t="n">
-        <v>1936.702817347243</v>
+        <v>2194.731449050419</v>
       </c>
       <c r="AD3" t="n">
-        <v>1564809.02365519</v>
+        <v>1773289.915836459</v>
       </c>
       <c r="AE3" t="n">
-        <v>2141040.740666944</v>
+        <v>2426293.49487719</v>
       </c>
       <c r="AF3" t="n">
         <v>4.895312664794494e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.40833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1936702.817347243</v>
+        <v>2194731.449050419</v>
       </c>
     </row>
     <row r="4">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1317.410135949305</v>
+        <v>1507.027373100101</v>
       </c>
       <c r="AB4" t="n">
-        <v>1802.538668039131</v>
+        <v>2061.98133723096</v>
       </c>
       <c r="AC4" t="n">
-        <v>1630.506907440385</v>
+        <v>1865.188732414619</v>
       </c>
       <c r="AD4" t="n">
-        <v>1317410.135949305</v>
+        <v>1507027.373100101</v>
       </c>
       <c r="AE4" t="n">
-        <v>1802538.668039131</v>
+        <v>2061981.337230959</v>
       </c>
       <c r="AF4" t="n">
         <v>5.341201616045366e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.86666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1630506.907440385</v>
+        <v>1865188.732414619</v>
       </c>
     </row>
     <row r="5">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1226.702967293893</v>
+        <v>1416.286039025909</v>
       </c>
       <c r="AB5" t="n">
-        <v>1678.429118166943</v>
+        <v>1937.825040725524</v>
       </c>
       <c r="AC5" t="n">
-        <v>1518.242198819152</v>
+        <v>1752.881738593205</v>
       </c>
       <c r="AD5" t="n">
-        <v>1226702.967293893</v>
+        <v>1416286.039025909</v>
       </c>
       <c r="AE5" t="n">
-        <v>1678429.118166943</v>
+        <v>1937825.040725524</v>
       </c>
       <c r="AF5" t="n">
         <v>5.507102197907422e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.69583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1518242.198819152</v>
+        <v>1752881.738593205</v>
       </c>
     </row>
     <row r="6">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1229.868996653653</v>
+        <v>1419.452068385669</v>
       </c>
       <c r="AB6" t="n">
-        <v>1682.761019212324</v>
+        <v>1942.156941770905</v>
       </c>
       <c r="AC6" t="n">
-        <v>1522.160669308623</v>
+        <v>1756.800209082677</v>
       </c>
       <c r="AD6" t="n">
-        <v>1229868.996653653</v>
+        <v>1419452.068385669</v>
       </c>
       <c r="AE6" t="n">
-        <v>1682761.019212324</v>
+        <v>1942156.941770905</v>
       </c>
       <c r="AF6" t="n">
         <v>5.511585997417208e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.6625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1522160.669308623</v>
+        <v>1756800.209082677</v>
       </c>
     </row>
   </sheetData>
@@ -7590,28 +7590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1326.914052937655</v>
+        <v>1539.658480915949</v>
       </c>
       <c r="AB2" t="n">
-        <v>1815.542346545817</v>
+        <v>2106.628658527477</v>
       </c>
       <c r="AC2" t="n">
-        <v>1642.269533121171</v>
+        <v>1905.574976029506</v>
       </c>
       <c r="AD2" t="n">
-        <v>1326914.052937655</v>
+        <v>1539658.480915949</v>
       </c>
       <c r="AE2" t="n">
-        <v>1815542.346545817</v>
+        <v>2106628.658527478</v>
       </c>
       <c r="AF2" t="n">
         <v>6.162175235704969e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.55416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1642269.533121171</v>
+        <v>1905574.976029506</v>
       </c>
     </row>
     <row r="3">
@@ -7696,28 +7696,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1102.069401117709</v>
+        <v>1296.209857487164</v>
       </c>
       <c r="AB3" t="n">
-        <v>1507.899974479808</v>
+        <v>1773.531511756953</v>
       </c>
       <c r="AC3" t="n">
-        <v>1363.988117266361</v>
+        <v>1604.268153441979</v>
       </c>
       <c r="AD3" t="n">
-        <v>1102069.401117709</v>
+        <v>1296209.857487164</v>
       </c>
       <c r="AE3" t="n">
-        <v>1507899.974479808</v>
+        <v>1773531.511756953</v>
       </c>
       <c r="AF3" t="n">
         <v>6.817795890059806e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.26666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1363988.117266361</v>
+        <v>1604268.153441979</v>
       </c>
     </row>
   </sheetData>
@@ -7993,28 +7993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5762.168385105982</v>
+        <v>6179.549822899191</v>
       </c>
       <c r="AB2" t="n">
-        <v>7884.05299343044</v>
+        <v>8455.132690188611</v>
       </c>
       <c r="AC2" t="n">
-        <v>7131.610041075013</v>
+        <v>7648.186693089953</v>
       </c>
       <c r="AD2" t="n">
-        <v>5762168.385105982</v>
+        <v>6179549.822899191</v>
       </c>
       <c r="AE2" t="n">
-        <v>7884052.993430439</v>
+        <v>8455132.690188611</v>
       </c>
       <c r="AF2" t="n">
         <v>2.025506653963156e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83</v>
+        <v>82.74166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>7131610.041075014</v>
+        <v>7648186.693089954</v>
       </c>
     </row>
     <row r="3">
@@ -8099,28 +8099,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2456.106292620759</v>
+        <v>2698.728024864943</v>
       </c>
       <c r="AB3" t="n">
-        <v>3360.552985326179</v>
+        <v>3692.518743098087</v>
       </c>
       <c r="AC3" t="n">
-        <v>3039.826524972259</v>
+        <v>3340.109936739271</v>
       </c>
       <c r="AD3" t="n">
-        <v>2456106.292620759</v>
+        <v>2698728.024864943</v>
       </c>
       <c r="AE3" t="n">
-        <v>3360552.985326179</v>
+        <v>3692518.743098087</v>
       </c>
       <c r="AF3" t="n">
         <v>3.391798572849741e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.40833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3039826.524972259</v>
+        <v>3340109.936739271</v>
       </c>
     </row>
     <row r="4">
@@ -8205,28 +8205,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1966.415589663998</v>
+        <v>2179.910535811701</v>
       </c>
       <c r="AB4" t="n">
-        <v>2690.53656191144</v>
+        <v>2982.64976596301</v>
       </c>
       <c r="AC4" t="n">
-        <v>2433.755528634392</v>
+        <v>2697.989858474738</v>
       </c>
       <c r="AD4" t="n">
-        <v>1966415.589663998</v>
+        <v>2179910.535811701</v>
       </c>
       <c r="AE4" t="n">
-        <v>2690536.56191144</v>
+        <v>2982649.76596301</v>
       </c>
       <c r="AF4" t="n">
         <v>3.888522305503533e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.09583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2433755.528634392</v>
+        <v>2697989.858474738</v>
       </c>
     </row>
     <row r="5">
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1751.625735317136</v>
+        <v>1955.377587347232</v>
       </c>
       <c r="AB5" t="n">
-        <v>2396.651607334462</v>
+        <v>2675.433880179346</v>
       </c>
       <c r="AC5" t="n">
-        <v>2167.918541652117</v>
+        <v>2420.094225650063</v>
       </c>
       <c r="AD5" t="n">
-        <v>1751625.735317136</v>
+        <v>1955377.587347232</v>
       </c>
       <c r="AE5" t="n">
-        <v>2396651.607334462</v>
+        <v>2675433.880179346</v>
       </c>
       <c r="AF5" t="n">
         <v>4.153173492617861e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.35416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2167918.541652117</v>
+        <v>2420094.225650063</v>
       </c>
     </row>
     <row r="6">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1622.774333304882</v>
+        <v>1816.918741862637</v>
       </c>
       <c r="AB6" t="n">
-        <v>2220.351434578633</v>
+        <v>2485.988379414168</v>
       </c>
       <c r="AC6" t="n">
-        <v>2008.444209945259</v>
+        <v>2248.729137589483</v>
       </c>
       <c r="AD6" t="n">
-        <v>1622774.333304882</v>
+        <v>1816918.741862637</v>
       </c>
       <c r="AE6" t="n">
-        <v>2220351.434578633</v>
+        <v>2485988.379414168</v>
       </c>
       <c r="AF6" t="n">
         <v>4.315262289589099e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.8375</v>
       </c>
       <c r="AH6" t="n">
-        <v>2008444.209945258</v>
+        <v>2248729.137589484</v>
       </c>
     </row>
     <row r="7">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1532.842394801851</v>
+        <v>1726.952637940825</v>
       </c>
       <c r="AB7" t="n">
-        <v>2097.302588801673</v>
+        <v>2362.89278700396</v>
       </c>
       <c r="AC7" t="n">
-        <v>1897.138973309111</v>
+        <v>2137.381615753156</v>
       </c>
       <c r="AD7" t="n">
-        <v>1532842.394801851</v>
+        <v>1726952.637940825</v>
       </c>
       <c r="AE7" t="n">
-        <v>2097302.588801673</v>
+        <v>2362892.78700396</v>
       </c>
       <c r="AF7" t="n">
         <v>4.429488637826894e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.83333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1897138.973309111</v>
+        <v>2137381.615753156</v>
       </c>
     </row>
     <row r="8">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1465.960264232171</v>
+        <v>1650.328424283394</v>
       </c>
       <c r="AB8" t="n">
-        <v>2005.791507124881</v>
+        <v>2258.052157456134</v>
       </c>
       <c r="AC8" t="n">
-        <v>1814.361580830943</v>
+        <v>2042.546828744628</v>
       </c>
       <c r="AD8" t="n">
-        <v>1465960.264232171</v>
+        <v>1650328.424283395</v>
       </c>
       <c r="AE8" t="n">
-        <v>2005791.507124881</v>
+        <v>2258052.157456134</v>
       </c>
       <c r="AF8" t="n">
         <v>4.512342960844449e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.14166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1814361.580830943</v>
+        <v>2042546.828744628</v>
       </c>
     </row>
     <row r="9">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1413.243702231214</v>
+        <v>1597.679182090142</v>
       </c>
       <c r="AB9" t="n">
-        <v>1933.662381304595</v>
+        <v>2186.015141566691</v>
       </c>
       <c r="AC9" t="n">
-        <v>1749.116357545081</v>
+        <v>1977.384924547086</v>
       </c>
       <c r="AD9" t="n">
-        <v>1413243.702231214</v>
+        <v>1597679.182090142</v>
       </c>
       <c r="AE9" t="n">
-        <v>1933662.381304595</v>
+        <v>2186015.141566691</v>
       </c>
       <c r="AF9" t="n">
         <v>4.558998793223267e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.75833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1749116.357545081</v>
+        <v>1977384.924547086</v>
       </c>
     </row>
     <row r="10">
@@ -8841,28 +8841,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1410.430195057543</v>
+        <v>1594.865674916471</v>
       </c>
       <c r="AB10" t="n">
-        <v>1929.812816666402</v>
+        <v>2182.165576928498</v>
       </c>
       <c r="AC10" t="n">
-        <v>1745.634189953059</v>
+        <v>1973.902756955064</v>
       </c>
       <c r="AD10" t="n">
-        <v>1410430.195057543</v>
+        <v>1594865.674916471</v>
       </c>
       <c r="AE10" t="n">
-        <v>1929812.816666402</v>
+        <v>2182165.576928498</v>
       </c>
       <c r="AF10" t="n">
         <v>4.567445107705639e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>36.69166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1745634.189953059</v>
+        <v>1973902.756955064</v>
       </c>
     </row>
     <row r="11">
@@ -8947,28 +8947,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1415.61105598497</v>
+        <v>1600.046535843898</v>
       </c>
       <c r="AB11" t="n">
-        <v>1936.901499150761</v>
+        <v>2189.254259412856</v>
       </c>
       <c r="AC11" t="n">
-        <v>1752.046338530139</v>
+        <v>1980.314905532144</v>
       </c>
       <c r="AD11" t="n">
-        <v>1415611.05598497</v>
+        <v>1600046.535843898</v>
       </c>
       <c r="AE11" t="n">
-        <v>1936901.499150761</v>
+        <v>2189254.259412856</v>
       </c>
       <c r="AF11" t="n">
         <v>4.566640696802556e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>37</v>
+        <v>36.69583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1752046.338530139</v>
+        <v>1980314.905532144</v>
       </c>
     </row>
   </sheetData>
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1115.092497764587</v>
+        <v>1317.126251108148</v>
       </c>
       <c r="AB2" t="n">
-        <v>1525.718749850542</v>
+        <v>1802.150244275344</v>
       </c>
       <c r="AC2" t="n">
-        <v>1380.10629372452</v>
+        <v>1630.155554295459</v>
       </c>
       <c r="AD2" t="n">
-        <v>1115092.497764587</v>
+        <v>1317126.251108148</v>
       </c>
       <c r="AE2" t="n">
-        <v>1525718.749850542</v>
+        <v>1802150.244275345</v>
       </c>
       <c r="AF2" t="n">
         <v>7.087180000763475e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.3875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1380106.29372452</v>
+        <v>1630155.554295459</v>
       </c>
     </row>
     <row r="3">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1080.379006179996</v>
+        <v>1273.358891805694</v>
       </c>
       <c r="AB3" t="n">
-        <v>1478.222219213341</v>
+        <v>1742.26581239811</v>
       </c>
       <c r="AC3" t="n">
-        <v>1337.142765309534</v>
+        <v>1575.98640854826</v>
       </c>
       <c r="AD3" t="n">
-        <v>1080379.006179996</v>
+        <v>1273358.891805694</v>
       </c>
       <c r="AE3" t="n">
-        <v>1478222.219213341</v>
+        <v>1742265.812398111</v>
       </c>
       <c r="AF3" t="n">
         <v>7.226328092334924e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.57083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1337142.765309534</v>
+        <v>1575986.40854826</v>
       </c>
     </row>
   </sheetData>
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3671.436404732093</v>
+        <v>4006.929440901507</v>
       </c>
       <c r="AB2" t="n">
-        <v>5023.421261297479</v>
+        <v>5482.457634292659</v>
       </c>
       <c r="AC2" t="n">
-        <v>4543.992986535079</v>
+        <v>4959.219572353177</v>
       </c>
       <c r="AD2" t="n">
-        <v>3671436.404732093</v>
+        <v>4006929.440901508</v>
       </c>
       <c r="AE2" t="n">
-        <v>5023421.261297479</v>
+        <v>5482457.634292659</v>
       </c>
       <c r="AF2" t="n">
         <v>2.7979239596964e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>67</v>
+        <v>66.74166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4543992.986535079</v>
+        <v>4959219.572353177</v>
       </c>
     </row>
     <row r="3">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1932.029322718277</v>
+        <v>2152.462044514431</v>
       </c>
       <c r="AB3" t="n">
-        <v>2643.487754461271</v>
+        <v>2945.093529228114</v>
       </c>
       <c r="AC3" t="n">
-        <v>2391.196993333852</v>
+        <v>2664.017936263311</v>
       </c>
       <c r="AD3" t="n">
-        <v>1932029.322718277</v>
+        <v>2152462.044514431</v>
       </c>
       <c r="AE3" t="n">
-        <v>2643487.754461271</v>
+        <v>2945093.529228114</v>
       </c>
       <c r="AF3" t="n">
         <v>4.121369330989604e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.30833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2391196.993333852</v>
+        <v>2664017.936263311</v>
       </c>
     </row>
     <row r="4">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1595.256403194961</v>
+        <v>1796.579557231634</v>
       </c>
       <c r="AB4" t="n">
-        <v>2182.700188596843</v>
+        <v>2458.159409700532</v>
       </c>
       <c r="AC4" t="n">
-        <v>1974.386346036114</v>
+        <v>2223.556125687113</v>
       </c>
       <c r="AD4" t="n">
-        <v>1595256.403194961</v>
+        <v>1796579.557231634</v>
       </c>
       <c r="AE4" t="n">
-        <v>2182700.188596842</v>
+        <v>2458159.409700532</v>
       </c>
       <c r="AF4" t="n">
         <v>4.595532962153915e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.63333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1974386.346036114</v>
+        <v>2223556.125687113</v>
       </c>
     </row>
     <row r="5">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1437.636068994757</v>
+        <v>1629.370779247837</v>
       </c>
       <c r="AB5" t="n">
-        <v>1967.037093625748</v>
+        <v>2229.37698293244</v>
       </c>
       <c r="AC5" t="n">
-        <v>1779.305834164006</v>
+        <v>2016.608372631615</v>
       </c>
       <c r="AD5" t="n">
-        <v>1437636.068994757</v>
+        <v>1629370.779247837</v>
       </c>
       <c r="AE5" t="n">
-        <v>1967037.093625748</v>
+        <v>2229376.98293244</v>
       </c>
       <c r="AF5" t="n">
         <v>4.842474512977672e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.5625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1779305.834164006</v>
+        <v>2016608.372631615</v>
       </c>
     </row>
     <row r="6">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1332.89590093133</v>
+        <v>1514.974847593113</v>
       </c>
       <c r="AB6" t="n">
-        <v>1823.726974871272</v>
+        <v>2072.855422450126</v>
       </c>
       <c r="AC6" t="n">
-        <v>1649.673032006443</v>
+        <v>1875.025010202343</v>
       </c>
       <c r="AD6" t="n">
-        <v>1332895.90093133</v>
+        <v>1514974.847593113</v>
       </c>
       <c r="AE6" t="n">
-        <v>1823726.974871272</v>
+        <v>2072855.422450126</v>
       </c>
       <c r="AF6" t="n">
         <v>4.995300409222502e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.38333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1649673.032006443</v>
+        <v>1875025.010202343</v>
       </c>
     </row>
     <row r="7">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1308.967153420861</v>
+        <v>1491.046100082644</v>
       </c>
       <c r="AB7" t="n">
-        <v>1790.986606865614</v>
+        <v>2040.115054444467</v>
       </c>
       <c r="AC7" t="n">
-        <v>1620.057358771849</v>
+        <v>1845.409336967749</v>
       </c>
       <c r="AD7" t="n">
-        <v>1308967.153420861</v>
+        <v>1491046.100082644</v>
       </c>
       <c r="AE7" t="n">
-        <v>1790986.606865613</v>
+        <v>2040115.054444467</v>
       </c>
       <c r="AF7" t="n">
         <v>5.033394840837782e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.1</v>
       </c>
       <c r="AH7" t="n">
-        <v>1620057.358771849</v>
+        <v>1845409.336967749</v>
       </c>
     </row>
     <row r="8">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1313.605515181428</v>
+        <v>1495.684461843211</v>
       </c>
       <c r="AB8" t="n">
-        <v>1797.3330180565</v>
+        <v>2046.461465635354</v>
       </c>
       <c r="AC8" t="n">
-        <v>1625.798077385921</v>
+        <v>1851.150055581822</v>
       </c>
       <c r="AD8" t="n">
-        <v>1313605.515181428</v>
+        <v>1495684.461843211</v>
       </c>
       <c r="AE8" t="n">
-        <v>1797333.0180565</v>
+        <v>2046461.465635354</v>
       </c>
       <c r="AF8" t="n">
         <v>5.033843010621491e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.09583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1625798.077385921</v>
+        <v>1851150.055581822</v>
       </c>
     </row>
   </sheetData>
@@ -10580,28 +10580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4586.408406329272</v>
+        <v>4953.014192154345</v>
       </c>
       <c r="AB2" t="n">
-        <v>6275.326319598653</v>
+        <v>6776.932529270347</v>
       </c>
       <c r="AC2" t="n">
-        <v>5676.417983131726</v>
+        <v>6130.151600161072</v>
       </c>
       <c r="AD2" t="n">
-        <v>4586408.406329272</v>
+        <v>4953014.192154344</v>
       </c>
       <c r="AE2" t="n">
-        <v>6275326.319598652</v>
+        <v>6776932.529270347</v>
       </c>
       <c r="AF2" t="n">
         <v>2.381674954806947e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>75</v>
+        <v>74.0125</v>
       </c>
       <c r="AH2" t="n">
-        <v>5676417.983131726</v>
+        <v>6130151.600161072</v>
       </c>
     </row>
     <row r="3">
@@ -10686,28 +10686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2186.95489072918</v>
+        <v>2418.479575905016</v>
       </c>
       <c r="AB3" t="n">
-        <v>2992.28816313611</v>
+        <v>3309.07045154211</v>
       </c>
       <c r="AC3" t="n">
-        <v>2706.708380549213</v>
+        <v>2993.257411956354</v>
       </c>
       <c r="AD3" t="n">
-        <v>2186954.89072918</v>
+        <v>2418479.575905016</v>
       </c>
       <c r="AE3" t="n">
-        <v>2992288.16313611</v>
+        <v>3309070.45154211</v>
       </c>
       <c r="AF3" t="n">
         <v>3.725650324508843e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2706708.380549212</v>
+        <v>2993257.411956354</v>
       </c>
     </row>
     <row r="4">
@@ -10792,28 +10792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1773.877522755217</v>
+        <v>1986.133181453114</v>
       </c>
       <c r="AB4" t="n">
-        <v>2427.097484586822</v>
+        <v>2717.515040876065</v>
       </c>
       <c r="AC4" t="n">
-        <v>2195.45870711057</v>
+        <v>2458.159219431167</v>
       </c>
       <c r="AD4" t="n">
-        <v>1773877.522755217</v>
+        <v>1986133.181453114</v>
       </c>
       <c r="AE4" t="n">
-        <v>2427097.484586822</v>
+        <v>2717515.040876065</v>
       </c>
       <c r="AF4" t="n">
         <v>4.212984169613213e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.84166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2195458.70711057</v>
+        <v>2458159.219431167</v>
       </c>
     </row>
     <row r="5">
@@ -10898,28 +10898,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1595.289309586852</v>
+        <v>1788.209633028966</v>
       </c>
       <c r="AB5" t="n">
-        <v>2182.745212573956</v>
+        <v>2446.707310151447</v>
       </c>
       <c r="AC5" t="n">
-        <v>1974.427072988044</v>
+        <v>2213.196998445869</v>
       </c>
       <c r="AD5" t="n">
-        <v>1595289.309586852</v>
+        <v>1788209.633028966</v>
       </c>
       <c r="AE5" t="n">
-        <v>2182745.212573956</v>
+        <v>2446707.310151447</v>
       </c>
       <c r="AF5" t="n">
         <v>4.468072979160032e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.45</v>
       </c>
       <c r="AH5" t="n">
-        <v>1974427.072988044</v>
+        <v>2213196.998445869</v>
       </c>
     </row>
     <row r="6">
@@ -11004,28 +11004,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1484.924047519592</v>
+        <v>1668.227445947057</v>
       </c>
       <c r="AB6" t="n">
-        <v>2031.738592041803</v>
+        <v>2282.542388545462</v>
       </c>
       <c r="AC6" t="n">
-        <v>1837.832312380356</v>
+        <v>2064.699746551045</v>
       </c>
       <c r="AD6" t="n">
-        <v>1484924.047519592</v>
+        <v>1668227.445947057</v>
       </c>
       <c r="AE6" t="n">
-        <v>2031738.592041803</v>
+        <v>2282542.388545462</v>
       </c>
       <c r="AF6" t="n">
         <v>4.62755636423325e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.09166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1837832.312380356</v>
+        <v>2064699.746551045</v>
       </c>
     </row>
     <row r="7">
@@ -11110,28 +11110,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1400.184534656233</v>
+        <v>1583.453767664916</v>
       </c>
       <c r="AB7" t="n">
-        <v>1915.794252098693</v>
+        <v>2166.551301969104</v>
       </c>
       <c r="AC7" t="n">
-        <v>1732.953537512513</v>
+        <v>1959.778686483023</v>
       </c>
       <c r="AD7" t="n">
-        <v>1400184.534656233</v>
+        <v>1583453.767664916</v>
       </c>
       <c r="AE7" t="n">
-        <v>1915794.252098693</v>
+        <v>2166551.301969104</v>
       </c>
       <c r="AF7" t="n">
         <v>4.733737609998178e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.2375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1732953.537512513</v>
+        <v>1959778.686483023</v>
       </c>
     </row>
     <row r="8">
@@ -11216,28 +11216,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1353.031879373383</v>
+        <v>1536.368432189771</v>
       </c>
       <c r="AB8" t="n">
-        <v>1851.277908912362</v>
+        <v>2102.127068713615</v>
       </c>
       <c r="AC8" t="n">
-        <v>1674.594543570629</v>
+        <v>1901.503011629459</v>
       </c>
       <c r="AD8" t="n">
-        <v>1353031.879373383</v>
+        <v>1536368.432189771</v>
       </c>
       <c r="AE8" t="n">
-        <v>1851277.908912362</v>
+        <v>2102127.068713615</v>
       </c>
       <c r="AF8" t="n">
         <v>4.781963355086631e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.85833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1674594.543570629</v>
+        <v>1901503.011629459</v>
       </c>
     </row>
     <row r="9">
@@ -11322,28 +11322,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1356.264477664035</v>
+        <v>1539.601030480424</v>
       </c>
       <c r="AB9" t="n">
-        <v>1855.700892505805</v>
+        <v>2106.550052307058</v>
       </c>
       <c r="AC9" t="n">
-        <v>1678.59540381761</v>
+        <v>1905.503871876439</v>
       </c>
       <c r="AD9" t="n">
-        <v>1356264.477664036</v>
+        <v>1539601.030480424</v>
       </c>
       <c r="AE9" t="n">
-        <v>1855700.892505805</v>
+        <v>2106550.052307058</v>
       </c>
       <c r="AF9" t="n">
         <v>4.784078519344897e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.84166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1678595.40381761</v>
+        <v>1905503.871876439</v>
       </c>
     </row>
   </sheetData>
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7325.912220857871</v>
+        <v>7794.358483678841</v>
       </c>
       <c r="AB2" t="n">
-        <v>10023.63629701543</v>
+        <v>10664.58514019768</v>
       </c>
       <c r="AC2" t="n">
-        <v>9066.994517089803</v>
+        <v>9646.772102256062</v>
       </c>
       <c r="AD2" t="n">
-        <v>7325912.220857871</v>
+        <v>7794358.483678841</v>
       </c>
       <c r="AE2" t="n">
-        <v>10023636.29701543</v>
+        <v>10664585.14019768</v>
       </c>
       <c r="AF2" t="n">
         <v>1.71898035476737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>94</v>
+        <v>93.21666666666665</v>
       </c>
       <c r="AH2" t="n">
-        <v>9066994.517089803</v>
+        <v>9646772.102256062</v>
       </c>
     </row>
     <row r="3">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2746.757982541183</v>
+        <v>3010.286196076444</v>
       </c>
       <c r="AB3" t="n">
-        <v>3758.235450122908</v>
+        <v>4118.806377926127</v>
       </c>
       <c r="AC3" t="n">
-        <v>3399.554733479618</v>
+        <v>3725.713277997761</v>
       </c>
       <c r="AD3" t="n">
-        <v>2746757.982541183</v>
+        <v>3010286.196076443</v>
       </c>
       <c r="AE3" t="n">
-        <v>3758235.450122908</v>
+        <v>4118806.377926128</v>
       </c>
       <c r="AF3" t="n">
         <v>3.101855825850917e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.65833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3399554.733479619</v>
+        <v>3725713.277997761</v>
       </c>
     </row>
     <row r="4">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2149.125928453516</v>
+        <v>2373.535482273991</v>
       </c>
       <c r="AB4" t="n">
-        <v>2940.528908054516</v>
+        <v>3247.575959842665</v>
       </c>
       <c r="AC4" t="n">
-        <v>2659.888956128035</v>
+        <v>2937.631868236644</v>
       </c>
       <c r="AD4" t="n">
-        <v>2149125.928453516</v>
+        <v>2373535.48227399</v>
       </c>
       <c r="AE4" t="n">
-        <v>2940528.908054516</v>
+        <v>3247575.959842665</v>
       </c>
       <c r="AF4" t="n">
         <v>3.615242576100233e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.32083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2659888.956128035</v>
+        <v>2937631.868236644</v>
       </c>
     </row>
     <row r="5">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1910.099863008298</v>
+        <v>2115.017912294008</v>
       </c>
       <c r="AB5" t="n">
-        <v>2613.482900226595</v>
+        <v>2893.860815605602</v>
       </c>
       <c r="AC5" t="n">
-        <v>2364.055760275257</v>
+        <v>2617.674800923367</v>
       </c>
       <c r="AD5" t="n">
-        <v>1910099.863008298</v>
+        <v>2115017.912294008</v>
       </c>
       <c r="AE5" t="n">
-        <v>2613482.900226595</v>
+        <v>2893860.815605602</v>
       </c>
       <c r="AF5" t="n">
         <v>3.88058853690325e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.29166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2364055.760275257</v>
+        <v>2617674.800923367</v>
       </c>
     </row>
     <row r="6">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1766.055841056522</v>
+        <v>1961.312540591946</v>
       </c>
       <c r="AB6" t="n">
-        <v>2416.395514618426</v>
+        <v>2683.554345040422</v>
       </c>
       <c r="AC6" t="n">
-        <v>2185.778118135648</v>
+        <v>2427.439684741942</v>
       </c>
       <c r="AD6" t="n">
-        <v>1766055.841056522</v>
+        <v>1961312.540591946</v>
       </c>
       <c r="AE6" t="n">
-        <v>2416395.514618426</v>
+        <v>2683554.345040422</v>
       </c>
       <c r="AF6" t="n">
         <v>4.049794656835608e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.5625</v>
       </c>
       <c r="AH6" t="n">
-        <v>2185778.118135648</v>
+        <v>2427439.684741942</v>
       </c>
     </row>
     <row r="7">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1672.507056274769</v>
+        <v>1867.628105164927</v>
       </c>
       <c r="AB7" t="n">
-        <v>2288.397940198921</v>
+        <v>2555.371167423581</v>
       </c>
       <c r="AC7" t="n">
-        <v>2069.996452573017</v>
+        <v>2311.490129690632</v>
       </c>
       <c r="AD7" t="n">
-        <v>1672507.056274769</v>
+        <v>1867628.105164927</v>
       </c>
       <c r="AE7" t="n">
-        <v>2288397.940198921</v>
+        <v>2555371.167423581</v>
       </c>
       <c r="AF7" t="n">
         <v>4.16400878778995e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>39</v>
+        <v>38.48333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2069996.452573017</v>
+        <v>2311490.129690632</v>
       </c>
     </row>
     <row r="8">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1595.161036298067</v>
+        <v>1790.349404995929</v>
       </c>
       <c r="AB8" t="n">
-        <v>2182.569703401221</v>
+        <v>2449.635040556722</v>
       </c>
       <c r="AC8" t="n">
-        <v>1974.268314164426</v>
+        <v>2215.845310370361</v>
       </c>
       <c r="AD8" t="n">
-        <v>1595161.036298067</v>
+        <v>1790349.404995929</v>
       </c>
       <c r="AE8" t="n">
-        <v>2182569.703401221</v>
+        <v>2449635.040556722</v>
       </c>
       <c r="AF8" t="n">
         <v>4.247842729029164e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.72083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1974268.314164426</v>
+        <v>2215845.310370361</v>
       </c>
     </row>
     <row r="9">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1537.268096731892</v>
+        <v>1722.660476064059</v>
       </c>
       <c r="AB9" t="n">
-        <v>2103.358029430544</v>
+        <v>2357.020061767351</v>
       </c>
       <c r="AC9" t="n">
-        <v>1902.616491183227</v>
+        <v>2132.069375170709</v>
       </c>
       <c r="AD9" t="n">
-        <v>1537268.096731892</v>
+        <v>1722660.476064059</v>
       </c>
       <c r="AE9" t="n">
-        <v>2103358.029430544</v>
+        <v>2357020.061767351</v>
       </c>
       <c r="AF9" t="n">
         <v>4.317832533183004e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>37.1125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1902616.491183227</v>
+        <v>2132069.375170709</v>
       </c>
     </row>
     <row r="10">
@@ -12467,28 +12467,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1480.654680465699</v>
+        <v>1666.114379605571</v>
       </c>
       <c r="AB10" t="n">
-        <v>2025.897055687485</v>
+        <v>2279.651197955134</v>
       </c>
       <c r="AC10" t="n">
-        <v>1832.548284057046</v>
+        <v>2062.084487132846</v>
       </c>
       <c r="AD10" t="n">
-        <v>1480654.680465699</v>
+        <v>1666114.379605571</v>
       </c>
       <c r="AE10" t="n">
-        <v>2025897.055687485</v>
+        <v>2279651.197955134</v>
       </c>
       <c r="AF10" t="n">
         <v>4.36397965680092e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>36.71666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1832548.284057046</v>
+        <v>2062084.487132846</v>
       </c>
     </row>
     <row r="11">
@@ -12573,28 +12573,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1463.762256829194</v>
+        <v>1649.221955969066</v>
       </c>
       <c r="AB11" t="n">
-        <v>2002.784096426884</v>
+        <v>2256.538238694533</v>
       </c>
       <c r="AC11" t="n">
-        <v>1811.641193189036</v>
+        <v>2041.177396264835</v>
       </c>
       <c r="AD11" t="n">
-        <v>1463762.256829194</v>
+        <v>1649221.955969066</v>
       </c>
       <c r="AE11" t="n">
-        <v>2002784.096426884</v>
+        <v>2256538.238694533</v>
       </c>
       <c r="AF11" t="n">
         <v>4.384361303065498e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>37</v>
+        <v>36.54583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1811641.193189036</v>
+        <v>2041177.396264835</v>
       </c>
     </row>
     <row r="12">
@@ -12679,28 +12679,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1467.131067168592</v>
+        <v>1652.590766308464</v>
       </c>
       <c r="AB12" t="n">
-        <v>2007.393451354672</v>
+        <v>2261.147593622321</v>
       </c>
       <c r="AC12" t="n">
-        <v>1815.810637751786</v>
+        <v>2045.346840827586</v>
       </c>
       <c r="AD12" t="n">
-        <v>1467131.067168592</v>
+        <v>1652590.766308464</v>
       </c>
       <c r="AE12" t="n">
-        <v>2007393.451354672</v>
+        <v>2261147.593622321</v>
       </c>
       <c r="AF12" t="n">
         <v>4.382823065611568e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>37</v>
+        <v>36.55833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1815810.637751786</v>
+        <v>2045346.840827585</v>
       </c>
     </row>
     <row r="13">
@@ -12785,28 +12785,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1471.378822140222</v>
+        <v>1656.838521280094</v>
       </c>
       <c r="AB13" t="n">
-        <v>2013.20541710458</v>
+        <v>2266.959559372227</v>
       </c>
       <c r="AC13" t="n">
-        <v>1821.067917647667</v>
+        <v>2050.604120723467</v>
       </c>
       <c r="AD13" t="n">
-        <v>1471378.822140222</v>
+        <v>1656838.521280094</v>
       </c>
       <c r="AE13" t="n">
-        <v>2013205.41710458</v>
+        <v>2266959.559372228</v>
       </c>
       <c r="AF13" t="n">
         <v>4.382823065611568e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>37</v>
+        <v>36.55833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1821067.917647667</v>
+        <v>2050604.120723467</v>
       </c>
     </row>
   </sheetData>
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2934.856693665363</v>
+        <v>3229.833044685485</v>
       </c>
       <c r="AB2" t="n">
-        <v>4015.600405012494</v>
+        <v>4419.200061916413</v>
       </c>
       <c r="AC2" t="n">
-        <v>3632.357138288516</v>
+        <v>3997.437810393185</v>
       </c>
       <c r="AD2" t="n">
-        <v>2934856.693665363</v>
+        <v>3229833.044685485</v>
       </c>
       <c r="AE2" t="n">
-        <v>4015600.405012494</v>
+        <v>4419200.061916413</v>
       </c>
       <c r="AF2" t="n">
         <v>3.310806237044468e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.3375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3632357.138288516</v>
+        <v>3997437.810393185</v>
       </c>
     </row>
     <row r="3">
@@ -13188,28 +13188,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1688.058599114938</v>
+        <v>1897.391437650986</v>
       </c>
       <c r="AB3" t="n">
-        <v>2309.676247198489</v>
+        <v>2596.094671996565</v>
       </c>
       <c r="AC3" t="n">
-        <v>2089.243987816837</v>
+        <v>2348.327040142968</v>
       </c>
       <c r="AD3" t="n">
-        <v>1688058.599114938</v>
+        <v>1897391.437650986</v>
       </c>
       <c r="AE3" t="n">
-        <v>2309676.247198489</v>
+        <v>2596094.671996565</v>
       </c>
       <c r="AF3" t="n">
         <v>4.602816490278589e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.4</v>
       </c>
       <c r="AH3" t="n">
-        <v>2089243.987816837</v>
+        <v>2348327.040142968</v>
       </c>
     </row>
     <row r="4">
@@ -13294,28 +13294,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1414.248555988681</v>
+        <v>1604.541910546317</v>
       </c>
       <c r="AB4" t="n">
-        <v>1935.037266546581</v>
+        <v>2195.405029402642</v>
       </c>
       <c r="AC4" t="n">
-        <v>1750.360025669235</v>
+        <v>1985.878654666763</v>
       </c>
       <c r="AD4" t="n">
-        <v>1414248.555988681</v>
+        <v>1604541.910546317</v>
       </c>
       <c r="AE4" t="n">
-        <v>1935037.266546581</v>
+        <v>2195405.029402642</v>
       </c>
       <c r="AF4" t="n">
         <v>5.063529608407713e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.45</v>
       </c>
       <c r="AH4" t="n">
-        <v>1750360.025669235</v>
+        <v>1985878.654666763</v>
       </c>
     </row>
     <row r="5">
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1274.691603221225</v>
+        <v>1465.018112167784</v>
       </c>
       <c r="AB5" t="n">
-        <v>1744.089286951917</v>
+        <v>2004.502413105571</v>
       </c>
       <c r="AC5" t="n">
-        <v>1577.635853249913</v>
+        <v>1813.195516135581</v>
       </c>
       <c r="AD5" t="n">
-        <v>1274691.603221225</v>
+        <v>1465018.112167784</v>
       </c>
       <c r="AE5" t="n">
-        <v>1744089.286951917</v>
+        <v>2004502.413105571</v>
       </c>
       <c r="AF5" t="n">
         <v>5.297481743316155e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.70833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1577635.853249914</v>
+        <v>1813195.516135581</v>
       </c>
     </row>
     <row r="6">
@@ -13506,28 +13506,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1254.725097251333</v>
+        <v>1435.498709819763</v>
       </c>
       <c r="AB6" t="n">
-        <v>1716.770232623836</v>
+        <v>1964.112664508889</v>
       </c>
       <c r="AC6" t="n">
-        <v>1552.924091124371</v>
+        <v>1776.660508457598</v>
       </c>
       <c r="AD6" t="n">
-        <v>1254725.097251333</v>
+        <v>1435498.709819763</v>
       </c>
       <c r="AE6" t="n">
-        <v>1716770.232623836</v>
+        <v>1964112.664508889</v>
       </c>
       <c r="AF6" t="n">
         <v>5.339190423105159e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.4125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1552924.091124371</v>
+        <v>1776660.508457598</v>
       </c>
     </row>
     <row r="7">
@@ -13612,28 +13612,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1260.377803122858</v>
+        <v>1441.151415691287</v>
       </c>
       <c r="AB7" t="n">
-        <v>1724.504514177038</v>
+        <v>1971.846946062092</v>
       </c>
       <c r="AC7" t="n">
-        <v>1559.920223701268</v>
+        <v>1783.656641034495</v>
       </c>
       <c r="AD7" t="n">
-        <v>1260377.803122858</v>
+        <v>1441151.415691287</v>
       </c>
       <c r="AE7" t="n">
-        <v>1724504.514177038</v>
+        <v>1971846.946062092</v>
       </c>
       <c r="AF7" t="n">
         <v>5.338231602880125e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.41666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1559920.223701268</v>
+        <v>1783656.641034495</v>
       </c>
     </row>
   </sheetData>
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2058.595478717473</v>
+        <v>2302.952426494589</v>
       </c>
       <c r="AB2" t="n">
-        <v>2816.661152804097</v>
+        <v>3151.001109020629</v>
       </c>
       <c r="AC2" t="n">
-        <v>2547.84296558923</v>
+        <v>2850.273985633414</v>
       </c>
       <c r="AD2" t="n">
-        <v>2058595.478717473</v>
+        <v>2302952.426494589</v>
       </c>
       <c r="AE2" t="n">
-        <v>2816661.152804097</v>
+        <v>3151001.109020629</v>
       </c>
       <c r="AF2" t="n">
         <v>4.36152479014785e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.075</v>
       </c>
       <c r="AH2" t="n">
-        <v>2547842.96558923</v>
+        <v>2850273.985633414</v>
       </c>
     </row>
     <row r="3">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1324.375726041857</v>
+        <v>1521.761161364659</v>
       </c>
       <c r="AB3" t="n">
-        <v>1812.069295703908</v>
+        <v>2082.14075634339</v>
       </c>
       <c r="AC3" t="n">
-        <v>1639.127945377156</v>
+        <v>1883.424164860881</v>
       </c>
       <c r="AD3" t="n">
-        <v>1324375.726041857</v>
+        <v>1521761.161364659</v>
       </c>
       <c r="AE3" t="n">
-        <v>1812069.295703907</v>
+        <v>2082140.756343389</v>
       </c>
       <c r="AF3" t="n">
         <v>5.603858872980865e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.53333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1639127.945377156</v>
+        <v>1883424.164860881</v>
       </c>
     </row>
     <row r="4">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1175.110050487553</v>
+        <v>1362.993067215223</v>
       </c>
       <c r="AB4" t="n">
-        <v>1607.837413273659</v>
+        <v>1864.90724557416</v>
       </c>
       <c r="AC4" t="n">
-        <v>1454.387667164802</v>
+        <v>1686.92311547032</v>
       </c>
       <c r="AD4" t="n">
-        <v>1175110.050487553</v>
+        <v>1362993.067215223</v>
       </c>
       <c r="AE4" t="n">
-        <v>1607837.413273659</v>
+        <v>1864907.24557416</v>
       </c>
       <c r="AF4" t="n">
         <v>5.933112837891414e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.28333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1454387.667164803</v>
+        <v>1686923.11547032</v>
       </c>
     </row>
     <row r="5">
@@ -14227,28 +14227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1181.437490986349</v>
+        <v>1369.320507714019</v>
       </c>
       <c r="AB5" t="n">
-        <v>1616.494896511085</v>
+        <v>1873.564728811586</v>
       </c>
       <c r="AC5" t="n">
-        <v>1462.218892352902</v>
+        <v>1694.75434065842</v>
       </c>
       <c r="AD5" t="n">
-        <v>1181437.490986349</v>
+        <v>1369320.507714019</v>
       </c>
       <c r="AE5" t="n">
-        <v>1616494.896511085</v>
+        <v>1873564.728811586</v>
       </c>
       <c r="AF5" t="n">
         <v>5.929842103140647e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.3</v>
       </c>
       <c r="AH5" t="n">
-        <v>1462218.892352903</v>
+        <v>1694754.34065842</v>
       </c>
     </row>
   </sheetData>
@@ -25793,28 +25793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1566.708126724378</v>
+        <v>1789.949859521548</v>
       </c>
       <c r="AB2" t="n">
-        <v>2143.639177268721</v>
+        <v>2449.088364811972</v>
       </c>
       <c r="AC2" t="n">
-        <v>1939.053262806675</v>
+        <v>2215.350808591425</v>
       </c>
       <c r="AD2" t="n">
-        <v>1566708.126724378</v>
+        <v>1789949.859521548</v>
       </c>
       <c r="AE2" t="n">
-        <v>2143639.177268721</v>
+        <v>2449088.364811972</v>
       </c>
       <c r="AF2" t="n">
         <v>5.41793306342688e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.07916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1939053.262806675</v>
+        <v>2215350.808591425</v>
       </c>
     </row>
     <row r="3">
@@ -25899,28 +25899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1125.278045876249</v>
+        <v>1311.29590900281</v>
       </c>
       <c r="AB3" t="n">
-        <v>1539.655066131588</v>
+        <v>1794.172912990281</v>
       </c>
       <c r="AC3" t="n">
-        <v>1392.712547539445</v>
+        <v>1622.939568311987</v>
       </c>
       <c r="AD3" t="n">
-        <v>1125278.045876249</v>
+        <v>1311295.90900281</v>
       </c>
       <c r="AE3" t="n">
-        <v>1539655.066131588</v>
+        <v>1794172.912990281</v>
       </c>
       <c r="AF3" t="n">
         <v>6.469685493140707e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.42916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1392712.547539445</v>
+        <v>1622939.568311987</v>
       </c>
     </row>
     <row r="4">
@@ -26005,28 +26005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1129.373151175444</v>
+        <v>1315.391014302005</v>
       </c>
       <c r="AB4" t="n">
-        <v>1545.258169865241</v>
+        <v>1799.776016723935</v>
       </c>
       <c r="AC4" t="n">
-        <v>1397.780898916765</v>
+        <v>1628.007919689307</v>
       </c>
       <c r="AD4" t="n">
-        <v>1129373.151175444</v>
+        <v>1315391.014302005</v>
       </c>
       <c r="AE4" t="n">
-        <v>1545258.169865241</v>
+        <v>1799776.016723935</v>
       </c>
       <c r="AF4" t="n">
         <v>6.477644038883595e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.37916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1397780.898916765</v>
+        <v>1628007.919689307</v>
       </c>
     </row>
   </sheetData>
@@ -26302,28 +26302,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1060.902087654671</v>
+        <v>1270.541212217455</v>
       </c>
       <c r="AB2" t="n">
-        <v>1451.573040025989</v>
+        <v>1738.410538878231</v>
       </c>
       <c r="AC2" t="n">
-        <v>1313.036946381466</v>
+        <v>1572.499076922208</v>
       </c>
       <c r="AD2" t="n">
-        <v>1060902.087654671</v>
+        <v>1270541.212217455</v>
       </c>
       <c r="AE2" t="n">
-        <v>1451573.04002599</v>
+        <v>1738410.538878231</v>
       </c>
       <c r="AF2" t="n">
         <v>7.680674407249865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.925</v>
       </c>
       <c r="AH2" t="n">
-        <v>1313036.946381466</v>
+        <v>1572499.076922208</v>
       </c>
     </row>
   </sheetData>
@@ -26599,28 +26599,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4107.368887909897</v>
+        <v>4453.568904184451</v>
       </c>
       <c r="AB2" t="n">
-        <v>5619.883316765217</v>
+        <v>6093.569452298873</v>
       </c>
       <c r="AC2" t="n">
-        <v>5083.529540568707</v>
+        <v>5512.00773614968</v>
       </c>
       <c r="AD2" t="n">
-        <v>4107368.887909898</v>
+        <v>4453568.90418445</v>
       </c>
       <c r="AE2" t="n">
-        <v>5619883.316765217</v>
+        <v>6093569.452298873</v>
       </c>
       <c r="AF2" t="n">
         <v>2.579378016132765e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.26666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5083529.540568708</v>
+        <v>5512007.73614968</v>
       </c>
     </row>
     <row r="3">
@@ -26705,28 +26705,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2056.667901032562</v>
+        <v>2287.422695000511</v>
       </c>
       <c r="AB3" t="n">
-        <v>2814.023755976875</v>
+        <v>3129.752645267031</v>
       </c>
       <c r="AC3" t="n">
-        <v>2545.457278213588</v>
+        <v>2831.053445438054</v>
       </c>
       <c r="AD3" t="n">
-        <v>2056667.901032561</v>
+        <v>2287422.695000511</v>
       </c>
       <c r="AE3" t="n">
-        <v>2814023.755976875</v>
+        <v>3129752.645267031</v>
       </c>
       <c r="AF3" t="n">
         <v>3.91560892094893e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.2875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2545457.278213589</v>
+        <v>2831053.445438053</v>
       </c>
     </row>
     <row r="4">
@@ -26811,28 +26811,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1689.111078600548</v>
+        <v>1891.038732410624</v>
       </c>
       <c r="AB4" t="n">
-        <v>2311.116296062818</v>
+        <v>2587.402620425125</v>
       </c>
       <c r="AC4" t="n">
-        <v>2090.546600438676</v>
+        <v>2340.464545774136</v>
       </c>
       <c r="AD4" t="n">
-        <v>1689111.078600548</v>
+        <v>1891038.732410624</v>
       </c>
       <c r="AE4" t="n">
-        <v>2311116.296062818</v>
+        <v>2587402.620425125</v>
       </c>
       <c r="AF4" t="n">
         <v>4.395816902367239e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.22916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2090546.600438676</v>
+        <v>2340464.545774136</v>
       </c>
     </row>
     <row r="5">
@@ -26917,28 +26917,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1511.111847059264</v>
+        <v>1713.038489839483</v>
       </c>
       <c r="AB5" t="n">
-        <v>2067.569894696158</v>
+        <v>2343.854835722811</v>
       </c>
       <c r="AC5" t="n">
-        <v>1870.243925798929</v>
+        <v>2120.160619822349</v>
       </c>
       <c r="AD5" t="n">
-        <v>1511111.847059264</v>
+        <v>1713038.489839483</v>
       </c>
       <c r="AE5" t="n">
-        <v>2067569.894696158</v>
+        <v>2343854.835722812</v>
       </c>
       <c r="AF5" t="n">
         <v>4.649839965001562e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.97916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1870243.925798929</v>
+        <v>2120160.619822348</v>
       </c>
     </row>
     <row r="6">
@@ -27023,28 +27023,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1404.510199223602</v>
+        <v>1596.850572230385</v>
       </c>
       <c r="AB6" t="n">
-        <v>1921.712817194621</v>
+        <v>2184.881401000883</v>
       </c>
       <c r="AC6" t="n">
-        <v>1738.307243062444</v>
+        <v>1976.359386589665</v>
       </c>
       <c r="AD6" t="n">
-        <v>1404510.199223602</v>
+        <v>1596850.572230385</v>
       </c>
       <c r="AE6" t="n">
-        <v>1921712.817194621</v>
+        <v>2184881.401000883</v>
       </c>
       <c r="AF6" t="n">
         <v>4.803384727176076e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.72916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1738307.243062444</v>
+        <v>1976359.386589665</v>
       </c>
     </row>
     <row r="7">
@@ -27129,28 +27129,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1341.167157659296</v>
+        <v>1523.853941084938</v>
       </c>
       <c r="AB7" t="n">
-        <v>1835.044073228569</v>
+        <v>2085.0041898836</v>
       </c>
       <c r="AC7" t="n">
-        <v>1659.910042380166</v>
+        <v>1886.014316322869</v>
       </c>
       <c r="AD7" t="n">
-        <v>1341167.157659296</v>
+        <v>1523853.941084938</v>
       </c>
       <c r="AE7" t="n">
-        <v>1835044.073228569</v>
+        <v>2085004.1898836</v>
       </c>
       <c r="AF7" t="n">
         <v>4.895598578680316e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.02083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1659910.042380166</v>
+        <v>1886014.316322869</v>
       </c>
     </row>
     <row r="8">
@@ -27235,28 +27235,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1326.827081009609</v>
+        <v>1509.581184242955</v>
       </c>
       <c r="AB8" t="n">
-        <v>1815.423347716935</v>
+        <v>2065.475574302808</v>
       </c>
       <c r="AC8" t="n">
-        <v>1642.161891373502</v>
+        <v>1868.349484404523</v>
       </c>
       <c r="AD8" t="n">
-        <v>1326827.081009609</v>
+        <v>1509581.184242955</v>
       </c>
       <c r="AE8" t="n">
-        <v>1815423.347716935</v>
+        <v>2065475.574302808</v>
       </c>
       <c r="AF8" t="n">
         <v>4.906907824619516e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.9375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1642161.891373502</v>
+        <v>1868349.484404523</v>
       </c>
     </row>
   </sheetData>
@@ -27532,28 +27532,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6469.707712276239</v>
+        <v>6907.774177121874</v>
       </c>
       <c r="AB2" t="n">
-        <v>8852.139515296951</v>
+        <v>9451.521378627245</v>
       </c>
       <c r="AC2" t="n">
-        <v>8007.303744012517</v>
+        <v>8549.481443544271</v>
       </c>
       <c r="AD2" t="n">
-        <v>6469707.712276239</v>
+        <v>6907774.177121874</v>
       </c>
       <c r="AE2" t="n">
-        <v>8852139.515296951</v>
+        <v>9451521.378627244</v>
       </c>
       <c r="AF2" t="n">
         <v>1.869290329179294e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>88</v>
+        <v>87.60833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>8007303.744012517</v>
+        <v>8549481.44354427</v>
       </c>
     </row>
     <row r="3">
@@ -27638,28 +27638,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2598.133550279489</v>
+        <v>2851.243933477666</v>
       </c>
       <c r="AB3" t="n">
-        <v>3554.880945055255</v>
+        <v>3901.197737789039</v>
       </c>
       <c r="AC3" t="n">
-        <v>3215.608096965789</v>
+        <v>3528.87290105972</v>
       </c>
       <c r="AD3" t="n">
-        <v>2598133.550279489</v>
+        <v>2851243.933477666</v>
       </c>
       <c r="AE3" t="n">
-        <v>3554880.945055255</v>
+        <v>3901197.73778904</v>
       </c>
       <c r="AF3" t="n">
         <v>3.242173239150545e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.5125</v>
       </c>
       <c r="AH3" t="n">
-        <v>3215608.096965789</v>
+        <v>3528872.90105972</v>
       </c>
     </row>
     <row r="4">
@@ -27744,28 +27744,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2053.603745545248</v>
+        <v>2277.470976945768</v>
       </c>
       <c r="AB4" t="n">
-        <v>2809.831243258133</v>
+        <v>3116.136265585716</v>
       </c>
       <c r="AC4" t="n">
-        <v>2541.664893024495</v>
+        <v>2818.736593922814</v>
       </c>
       <c r="AD4" t="n">
-        <v>2053603.745545249</v>
+        <v>2277470.976945768</v>
       </c>
       <c r="AE4" t="n">
-        <v>2809831.243258134</v>
+        <v>3116136.265585716</v>
       </c>
       <c r="AF4" t="n">
         <v>3.746048386755225e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.71666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2541664.893024494</v>
+        <v>2818736.593922814</v>
       </c>
     </row>
     <row r="5">
@@ -27850,28 +27850,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1825.723962864294</v>
+        <v>2030.152702097671</v>
       </c>
       <c r="AB5" t="n">
-        <v>2498.036071247569</v>
+        <v>2777.744491026139</v>
       </c>
       <c r="AC5" t="n">
-        <v>2259.627014623346</v>
+        <v>2512.640455391483</v>
       </c>
       <c r="AD5" t="n">
-        <v>1825723.962864294</v>
+        <v>2030152.702097671</v>
       </c>
       <c r="AE5" t="n">
-        <v>2498036.071247569</v>
+        <v>2777744.491026139</v>
       </c>
       <c r="AF5" t="n">
         <v>4.012135340677509e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.81666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2259627.014623346</v>
+        <v>2512640.455391482</v>
       </c>
     </row>
     <row r="6">
@@ -27956,28 +27956,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1699.069273929603</v>
+        <v>1893.694364562317</v>
       </c>
       <c r="AB6" t="n">
-        <v>2324.741538236604</v>
+        <v>2591.036173493293</v>
       </c>
       <c r="AC6" t="n">
-        <v>2102.871468622543</v>
+        <v>2343.751317637202</v>
       </c>
       <c r="AD6" t="n">
-        <v>1699069.273929603</v>
+        <v>1893694.364562317</v>
       </c>
       <c r="AE6" t="n">
-        <v>2324741.538236604</v>
+        <v>2591036.173493293</v>
       </c>
       <c r="AF6" t="n">
         <v>4.178783595423518e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.1875</v>
       </c>
       <c r="AH6" t="n">
-        <v>2102871.468622543</v>
+        <v>2343751.317637202</v>
       </c>
     </row>
     <row r="7">
@@ -28062,28 +28062,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1609.093625407997</v>
+        <v>1794.016552666531</v>
       </c>
       <c r="AB7" t="n">
-        <v>2201.632886483879</v>
+        <v>2454.652593782777</v>
       </c>
       <c r="AC7" t="n">
-        <v>1991.51213380902</v>
+        <v>2220.383995358701</v>
       </c>
       <c r="AD7" t="n">
-        <v>1609093.625407997</v>
+        <v>1794016.552666531</v>
       </c>
       <c r="AE7" t="n">
-        <v>2201632.886483879</v>
+        <v>2454652.593782777</v>
       </c>
       <c r="AF7" t="n">
         <v>4.290406483036411e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>39</v>
+        <v>38.17083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1991512.13380902</v>
+        <v>2220383.995358701</v>
       </c>
     </row>
     <row r="8">
@@ -28168,28 +28168,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1531.543871974751</v>
+        <v>1716.432633814504</v>
       </c>
       <c r="AB8" t="n">
-        <v>2095.52589258285</v>
+        <v>2348.498853248501</v>
       </c>
       <c r="AC8" t="n">
-        <v>1895.531842483805</v>
+        <v>2124.361418833305</v>
       </c>
       <c r="AD8" t="n">
-        <v>1531543.871974751</v>
+        <v>1716432.633814504</v>
       </c>
       <c r="AE8" t="n">
-        <v>2095525.89258285</v>
+        <v>2348498.853248501</v>
       </c>
       <c r="AF8" t="n">
         <v>4.378054032112732e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.40416666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1895531.842483805</v>
+        <v>2124361.418833306</v>
       </c>
     </row>
     <row r="9">
@@ -28274,28 +28274,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1467.486427213905</v>
+        <v>1652.442508861363</v>
       </c>
       <c r="AB9" t="n">
-        <v>2007.879670646048</v>
+        <v>2260.94474124254</v>
       </c>
       <c r="AC9" t="n">
-        <v>1816.250452956406</v>
+        <v>2045.163348394226</v>
       </c>
       <c r="AD9" t="n">
-        <v>1467486.427213905</v>
+        <v>1652442.508861362</v>
       </c>
       <c r="AE9" t="n">
-        <v>2007879.670646048</v>
+        <v>2260944.74124254</v>
       </c>
       <c r="AF9" t="n">
         <v>4.43622370593917e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.91666666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1816250.452956405</v>
+        <v>2045163.348394226</v>
       </c>
     </row>
     <row r="10">
@@ -28380,28 +28380,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1435.978075776478</v>
+        <v>1620.934157423936</v>
       </c>
       <c r="AB10" t="n">
-        <v>1964.768554159</v>
+        <v>2217.833624755492</v>
       </c>
       <c r="AC10" t="n">
-        <v>1777.253800920049</v>
+        <v>2006.166696357869</v>
       </c>
       <c r="AD10" t="n">
-        <v>1435978.075776478</v>
+        <v>1620934.157423936</v>
       </c>
       <c r="AE10" t="n">
-        <v>1964768.554159</v>
+        <v>2217833.624755492</v>
       </c>
       <c r="AF10" t="n">
         <v>4.47159715623903e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>36.625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1777253.800920049</v>
+        <v>2006166.696357869</v>
       </c>
     </row>
     <row r="11">
@@ -28486,28 +28486,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1436.507365155308</v>
+        <v>1621.463446802765</v>
       </c>
       <c r="AB11" t="n">
-        <v>1965.492751237714</v>
+        <v>2218.557821834206</v>
       </c>
       <c r="AC11" t="n">
-        <v>1777.908881645987</v>
+        <v>2006.821777083808</v>
       </c>
       <c r="AD11" t="n">
-        <v>1436507.365155308</v>
+        <v>1621463.446802765</v>
       </c>
       <c r="AE11" t="n">
-        <v>1965492.751237714</v>
+        <v>2218557.821834206</v>
       </c>
       <c r="AF11" t="n">
         <v>4.475527539605682e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>37</v>
+        <v>36.59166666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1777908.881645987</v>
+        <v>2006821.777083808</v>
       </c>
     </row>
   </sheetData>
@@ -28783,28 +28783,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1077.764499798877</v>
+        <v>1312.433406843701</v>
       </c>
       <c r="AB2" t="n">
-        <v>1474.644936238813</v>
+        <v>1795.729287719051</v>
       </c>
       <c r="AC2" t="n">
-        <v>1333.906893201347</v>
+        <v>1624.347404821028</v>
       </c>
       <c r="AD2" t="n">
-        <v>1077764.499798877</v>
+        <v>1312433.406843701</v>
       </c>
       <c r="AE2" t="n">
-        <v>1474644.936238813</v>
+        <v>1795729.287719051</v>
       </c>
       <c r="AF2" t="n">
         <v>8.127150538194407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.8875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1333906.893201347</v>
+        <v>1624347.404821028</v>
       </c>
     </row>
   </sheetData>
@@ -29080,28 +29080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2324.080858565824</v>
+        <v>2588.453713241451</v>
       </c>
       <c r="AB2" t="n">
-        <v>3179.909961901132</v>
+        <v>3541.636564975539</v>
       </c>
       <c r="AC2" t="n">
-        <v>2876.423818168831</v>
+        <v>3203.627741932278</v>
       </c>
       <c r="AD2" t="n">
-        <v>2324080.858565824</v>
+        <v>2588453.71324145</v>
       </c>
       <c r="AE2" t="n">
-        <v>3179909.961901132</v>
+        <v>3541636.564975539</v>
       </c>
       <c r="AF2" t="n">
         <v>3.957980553926066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.725</v>
       </c>
       <c r="AH2" t="n">
-        <v>2876423.818168831</v>
+        <v>3203627.741932278</v>
       </c>
     </row>
     <row r="3">
@@ -29186,28 +29186,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1445.954077481966</v>
+        <v>1644.157857326286</v>
       </c>
       <c r="AB3" t="n">
-        <v>1978.418159802583</v>
+        <v>2249.609315519217</v>
       </c>
       <c r="AC3" t="n">
-        <v>1789.60070735835</v>
+        <v>2034.909759792567</v>
       </c>
       <c r="AD3" t="n">
-        <v>1445954.077481966</v>
+        <v>1644157.857326286</v>
       </c>
       <c r="AE3" t="n">
-        <v>1978418.159802583</v>
+        <v>2249609.315519217</v>
       </c>
       <c r="AF3" t="n">
         <v>5.221685666428597e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.47916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1789600.70735835</v>
+        <v>2034909.759792567</v>
       </c>
     </row>
     <row r="4">
@@ -29292,28 +29292,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1227.728255267107</v>
+        <v>1416.454761832132</v>
       </c>
       <c r="AB4" t="n">
-        <v>1679.831962404407</v>
+        <v>1938.055894712522</v>
       </c>
       <c r="AC4" t="n">
-        <v>1519.511157571496</v>
+        <v>1753.09056019969</v>
       </c>
       <c r="AD4" t="n">
-        <v>1227728.255267107</v>
+        <v>1416454.761832132</v>
       </c>
       <c r="AE4" t="n">
-        <v>1679831.962404407</v>
+        <v>1938055.894712522</v>
       </c>
       <c r="AF4" t="n">
         <v>5.656782819519761e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.29166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1519511.157571496</v>
+        <v>1753090.56019969</v>
       </c>
     </row>
     <row r="5">
@@ -29398,28 +29398,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1196.30228883499</v>
+        <v>1385.096115207719</v>
       </c>
       <c r="AB5" t="n">
-        <v>1636.833568716194</v>
+        <v>1895.149610955151</v>
       </c>
       <c r="AC5" t="n">
-        <v>1480.616470228262</v>
+        <v>1714.279191944775</v>
       </c>
       <c r="AD5" t="n">
-        <v>1196302.28883499</v>
+        <v>1385096.115207719</v>
       </c>
       <c r="AE5" t="n">
-        <v>1636833.568716194</v>
+        <v>1895149.610955151</v>
       </c>
       <c r="AF5" t="n">
         <v>5.71396404632983e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.90833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1480616.470228262</v>
+        <v>1714279.191944775</v>
       </c>
     </row>
     <row r="6">
@@ -29504,28 +29504,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1202.444387926721</v>
+        <v>1391.238214299451</v>
       </c>
       <c r="AB6" t="n">
-        <v>1645.237459663789</v>
+        <v>1903.553501902745</v>
       </c>
       <c r="AC6" t="n">
-        <v>1488.218305618753</v>
+        <v>1721.881027335266</v>
       </c>
       <c r="AD6" t="n">
-        <v>1202444.387926721</v>
+        <v>1391238.214299451</v>
       </c>
       <c r="AE6" t="n">
-        <v>1645237.459663789</v>
+        <v>1903553.501902745</v>
       </c>
       <c r="AF6" t="n">
         <v>5.712924387660556e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.9125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1488218.305618753</v>
+        <v>1721881.027335266</v>
       </c>
     </row>
   </sheetData>
@@ -29801,28 +29801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3283.679665131904</v>
+        <v>3598.82313138889</v>
       </c>
       <c r="AB2" t="n">
-        <v>4492.875383556444</v>
+        <v>4924.068577237774</v>
       </c>
       <c r="AC2" t="n">
-        <v>4064.081662739852</v>
+        <v>4454.122383199668</v>
       </c>
       <c r="AD2" t="n">
-        <v>3283679.665131904</v>
+        <v>3598823.13138889</v>
       </c>
       <c r="AE2" t="n">
-        <v>4492875.383556444</v>
+        <v>4924068.577237774</v>
       </c>
       <c r="AF2" t="n">
         <v>3.041557010463885e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.4125</v>
       </c>
       <c r="AH2" t="n">
-        <v>4064081.662739852</v>
+        <v>4454122.383199668</v>
       </c>
     </row>
     <row r="3">
@@ -29907,28 +29907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1807.786380034451</v>
+        <v>2027.414532218995</v>
       </c>
       <c r="AB3" t="n">
-        <v>2473.493079069474</v>
+        <v>2773.998006198605</v>
       </c>
       <c r="AC3" t="n">
-        <v>2237.426371172423</v>
+        <v>2509.251529817663</v>
       </c>
       <c r="AD3" t="n">
-        <v>1807786.38003445</v>
+        <v>2027414.532218995</v>
       </c>
       <c r="AE3" t="n">
-        <v>2473493.079069474</v>
+        <v>2773998.006198605</v>
       </c>
       <c r="AF3" t="n">
         <v>4.351495579876881e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.32083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2237426.371172423</v>
+        <v>2509251.529817663</v>
       </c>
     </row>
     <row r="4">
@@ -30013,28 +30013,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1509.720546433257</v>
+        <v>1700.752185607997</v>
       </c>
       <c r="AB4" t="n">
-        <v>2065.666255799805</v>
+        <v>2327.044172239805</v>
       </c>
       <c r="AC4" t="n">
-        <v>1868.52196752707</v>
+        <v>2104.954342468246</v>
       </c>
       <c r="AD4" t="n">
-        <v>1509720.546433257</v>
+        <v>1700752.185607997</v>
       </c>
       <c r="AE4" t="n">
-        <v>2065666.255799805</v>
+        <v>2327044.172239805</v>
       </c>
       <c r="AF4" t="n">
         <v>4.817148654374928e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.0375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1868521.96752707</v>
+        <v>2104954.342468245</v>
       </c>
     </row>
     <row r="5">
@@ -30119,28 +30119,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1357.534434966385</v>
+        <v>1539.011126192003</v>
       </c>
       <c r="AB5" t="n">
-        <v>1857.438504113442</v>
+        <v>2105.7429192349</v>
       </c>
       <c r="AC5" t="n">
-        <v>1680.167180212168</v>
+        <v>1904.773770451869</v>
       </c>
       <c r="AD5" t="n">
-        <v>1357534.434966385</v>
+        <v>1539011.126192003</v>
       </c>
       <c r="AE5" t="n">
-        <v>1857438.504113442</v>
+        <v>2105742.9192349</v>
       </c>
       <c r="AF5" t="n">
         <v>5.061547087113465e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.10416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1680167.180212168</v>
+        <v>1904773.770451869</v>
       </c>
     </row>
     <row r="6">
@@ -30225,28 +30225,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1284.145948033728</v>
+        <v>1465.588473840564</v>
       </c>
       <c r="AB6" t="n">
-        <v>1757.025138620639</v>
+        <v>2005.282807108849</v>
       </c>
       <c r="AC6" t="n">
-        <v>1589.337125390955</v>
+        <v>1813.901430430476</v>
       </c>
       <c r="AD6" t="n">
-        <v>1284145.948033728</v>
+        <v>1465588.473840564</v>
       </c>
       <c r="AE6" t="n">
-        <v>1757025.138620639</v>
+        <v>2005282.807108849</v>
       </c>
       <c r="AF6" t="n">
         <v>5.17124865635406e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.29583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1589337.125390955</v>
+        <v>1813901.430430477</v>
       </c>
     </row>
     <row r="7">
@@ -30331,28 +30331,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1284.576041004741</v>
+        <v>1466.018566811577</v>
       </c>
       <c r="AB7" t="n">
-        <v>1757.613610797943</v>
+        <v>2005.871279286153</v>
       </c>
       <c r="AC7" t="n">
-        <v>1589.869434609582</v>
+        <v>1814.433739649104</v>
       </c>
       <c r="AD7" t="n">
-        <v>1284576.041004741</v>
+        <v>1466018.566811577</v>
       </c>
       <c r="AE7" t="n">
-        <v>1757613.610797943</v>
+        <v>2005871.279286153</v>
       </c>
       <c r="AF7" t="n">
         <v>5.181431924384832e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.225</v>
       </c>
       <c r="AH7" t="n">
-        <v>1589869.434609582</v>
+        <v>1814433.739649104</v>
       </c>
     </row>
   </sheetData>
